--- a/storage/excel/sum122.xlsx
+++ b/storage/excel/sum122.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>บทที่ 12 ข้อมูลการผลิตพลังงาน</t>
   </si>
@@ -92,6 +92,9 @@
     <t>หมู</t>
   </si>
   <si>
+    <t>no_ra716_o245_ch723_o248_nu724</t>
+  </si>
+  <si>
     <t>เติมมูลสัตว์</t>
   </si>
   <si>
@@ -107,9 +110,15 @@
     <t xml:space="preserve">   เท่าเดิม</t>
   </si>
   <si>
+    <t>no_ra716_o245_ch718_o246_ra722(291)</t>
+  </si>
+  <si>
     <t>วัว</t>
   </si>
   <si>
+    <t>no_ra716_o245_ch723_o249_nu725</t>
+  </si>
+  <si>
     <t>เติมมูลสัตว์แต่ละครั้งจำนวน</t>
   </si>
   <si>
@@ -122,10 +131,34 @@
     <t xml:space="preserve">   ลดลง</t>
   </si>
   <si>
+    <t>no_ra716_o245_ch718_o246_ra722(292)</t>
+  </si>
+  <si>
     <t xml:space="preserve">   มากขึ้น</t>
   </si>
   <si>
+    <t>no_ra716_o245_ch718_o246_ra722(293)</t>
+  </si>
+  <si>
     <t>UID = (ชม/วัน, วัน/เดือน, เดือน/ปี) จับคูณกันสามช่องได้ ชม/ปี</t>
+  </si>
+  <si>
+    <t>no_ra716_o245_ch718_o247_ra722(291)</t>
+  </si>
+  <si>
+    <t>no_ra716_o245_ch718_o247_ra722(292)</t>
+  </si>
+  <si>
+    <t>no_ra716_o245_ch718_o247_ra722(293)</t>
+  </si>
+  <si>
+    <t>no_ra716_o245_ch718_o1_ra722(291)</t>
+  </si>
+  <si>
+    <t>no_ra716_o245_ch718_o1_ra722(292)</t>
+  </si>
+  <si>
+    <t>no_ra716_o245_ch718_o1_ra722(293)</t>
   </si>
 </sst>
 </file>
@@ -335,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -489,10 +522,19 @@
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -794,10 +836,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BS22"/>
+  <dimension ref="A1:CA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="BM12" sqref="BM12"/>
+      <selection activeCell="CA15" sqref="CA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,7 +901,7 @@
     <col min="69" max="69" width="9" customWidth="true" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="20" customFormat="1">
+    <row r="1" spans="1:79" s="20" customFormat="1">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -924,7 +966,7 @@
       <c r="BJ1" s="20"/>
       <c r="BN1" s="21"/>
     </row>
-    <row r="2" spans="1:71" customHeight="1" ht="19.5" s="23" customFormat="1">
+    <row r="2" spans="1:79" customHeight="1" ht="19.5" s="23" customFormat="1">
       <c r="A2" s="22"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
@@ -989,7 +1031,7 @@
       <c r="BJ2" s="24"/>
       <c r="BN2" s="25"/>
     </row>
-    <row r="3" spans="1:71" customHeight="1" ht="19.5" s="23" customFormat="1">
+    <row r="3" spans="1:79" customHeight="1" ht="19.5" s="23" customFormat="1">
       <c r="A3" s="22"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1052,7 +1094,7 @@
       <c r="BJ3" s="24"/>
       <c r="BN3" s="25"/>
     </row>
-    <row r="4" spans="1:71" customHeight="1" ht="19.5" s="23" customFormat="1">
+    <row r="4" spans="1:79" customHeight="1" ht="19.5" s="23" customFormat="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
@@ -1117,7 +1159,7 @@
       <c r="BJ4" s="26"/>
       <c r="BN4" s="25"/>
     </row>
-    <row r="5" spans="1:71" customHeight="1" ht="19.5" s="23" customFormat="1">
+    <row r="5" spans="1:79" customHeight="1" ht="19.5" s="23" customFormat="1">
       <c r="A5" s="24"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1180,7 +1222,7 @@
       <c r="BJ5" s="24"/>
       <c r="BN5" s="25"/>
     </row>
-    <row r="6" spans="1:71" customHeight="1" ht="14.25" s="26" customFormat="1">
+    <row r="6" spans="1:79" customHeight="1" ht="14.25" s="26" customFormat="1">
       <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1300,7 @@
       <c r="BR6" s="27"/>
       <c r="BS6" s="27"/>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:79">
       <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1379,7 @@
       <c r="BR7" s="44"/>
       <c r="BS7" s="44"/>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:79">
       <c r="B8" s="39" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +1479,7 @@
       <c r="BR8" s="37"/>
       <c r="BS8" s="37"/>
     </row>
-    <row r="9" spans="1:71" s="6" customFormat="1">
+    <row r="9" spans="1:79" s="6" customFormat="1">
       <c r="B9" s="39"/>
       <c r="C9" s="40" t="s">
         <v>16</v>
@@ -1565,7 +1607,7 @@
       </c>
       <c r="BS9" s="37"/>
     </row>
-    <row r="10" spans="1:71">
+    <row r="10" spans="1:79">
       <c r="B10" s="39"/>
       <c r="C10" s="15" t="s">
         <v>14</v>
@@ -1753,27 +1795,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:71">
+    <row r="11" spans="1:79">
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="49">
-        <v>1410402.7412408</v>
+        <v>1373299.5526416</v>
       </c>
       <c r="D11" s="50">
-        <v>99.761541890059</v>
+        <v>97.137134552032</v>
       </c>
       <c r="E11" s="50">
-        <v>3049624.6679153</v>
+        <v>2672668.3397893</v>
       </c>
       <c r="F11" s="50">
-        <v>99.879529411765</v>
+        <v>87.533675491405</v>
       </c>
       <c r="G11" s="50">
-        <v>4459924.5666637</v>
+        <v>4054338.6391941</v>
       </c>
       <c r="H11" s="50">
-        <v>99.839885604472</v>
+        <v>90.760437735775</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1785,22 +1827,22 @@
         <v>23</v>
       </c>
       <c r="Q11" s="49">
-        <v>1.1448725534526</v>
+        <v>0</v>
       </c>
       <c r="R11" s="50">
-        <v>0.02200946815322</v>
+        <v>0</v>
       </c>
       <c r="S11" s="50">
-        <v>0.32527058823529</v>
+        <v>12.924</v>
       </c>
       <c r="T11" s="50">
-        <v>0.00064763862916493</v>
+        <v>1.5685449733219</v>
       </c>
       <c r="U11" s="50">
-        <v>0.73507157084396</v>
+        <v>6.462</v>
       </c>
       <c r="V11" s="50">
-        <v>0.011328553391193</v>
+        <v>0.78427248666094</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -1812,12 +1854,24 @@
         <v>23</v>
       </c>
       <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
+      <c r="AF11" s="53">
+        <v>4.03125</v>
+      </c>
+      <c r="AG11" s="53">
+        <v>0.76459723174251</v>
+      </c>
+      <c r="AH11" s="53">
+        <v>5.6045393958268</v>
+      </c>
+      <c r="AI11" s="53">
+        <v>0.019832204762876</v>
+      </c>
+      <c r="AJ11" s="53">
+        <v>4.8178946979134</v>
+      </c>
+      <c r="AK11" s="53">
+        <v>0.39221471825269</v>
+      </c>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
       <c r="AN11" s="46"/>
@@ -1826,53 +1880,55 @@
       <c r="AR11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AS11" s="49">
-        <v>9.81</v>
+      <c r="AS11" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AT11" s="50">
-        <v>0</v>
+        <v>30350.999956902</v>
       </c>
       <c r="AU11" s="50">
-        <v>5.12</v>
+        <v>2.1468070538079</v>
       </c>
       <c r="AV11" s="50">
-        <v>0</v>
+        <v>204101.50824451</v>
       </c>
       <c r="AW11" s="50">
-        <v>7.465</v>
+        <v>6.6846136215275</v>
       </c>
       <c r="AX11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="10"/>
+        <v>230497.18029312</v>
+      </c>
+      <c r="AY11" s="50">
+        <v>5.1599106147737</v>
+      </c>
       <c r="AZ11" s="10"/>
       <c r="BA11" s="10"/>
       <c r="BB11" s="10"/>
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
       <c r="BF11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BG11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="BH11" s="52">
-        <v>3.692</v>
-      </c>
-      <c r="BI11" s="52">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="52">
-        <v>2.816</v>
-      </c>
-      <c r="BK11" s="52">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="52">
-        <v>3.254</v>
-      </c>
-      <c r="BM11" s="52">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="BH11" s="51">
+        <v>114.16072</v>
+      </c>
+      <c r="BI11" s="51">
+        <v>32.953554009157</v>
+      </c>
+      <c r="BJ11" s="51">
+        <v>164.52909460317</v>
+      </c>
+      <c r="BK11" s="51">
+        <v>4.302387461352</v>
+      </c>
+      <c r="BL11" s="51">
+        <v>139.34490730159</v>
+      </c>
+      <c r="BM11" s="51">
+        <v>18.627970735255</v>
       </c>
       <c r="BN11" s="7"/>
       <c r="BO11" s="7"/>
@@ -1880,28 +1936,46 @@
       <c r="BQ11" s="7"/>
       <c r="BR11" s="7"/>
       <c r="BS11" s="7"/>
+      <c r="BV11" s="55">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="55">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="55">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="55">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="55">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:71">
+    <row r="12" spans="1:79">
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="49">
-        <v>3371.2587592404</v>
+        <v>40474.447358362</v>
       </c>
       <c r="D12" s="50">
-        <v>0.23845810994122</v>
+        <v>2.8628654479685</v>
       </c>
       <c r="E12" s="50">
-        <v>3678.3320847059</v>
+        <v>380634.66021067</v>
       </c>
       <c r="F12" s="50">
-        <v>0.12047058823529</v>
+        <v>12.466324508595</v>
       </c>
       <c r="G12" s="50">
-        <v>7152.433336342</v>
+        <v>412738.36080585</v>
       </c>
       <c r="H12" s="50">
-        <v>0.16011439552848</v>
+        <v>9.2395622642245</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1910,25 +1984,25 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="P12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="49">
-        <v>0</v>
+        <v>81.61</v>
       </c>
       <c r="R12" s="50">
-        <v>0</v>
+        <v>5.8180932893698</v>
       </c>
       <c r="S12" s="50">
-        <v>0</v>
+        <v>403.59021943574</v>
       </c>
       <c r="T12" s="50">
-        <v>0</v>
+        <v>31.320714828456</v>
       </c>
       <c r="U12" s="50">
-        <v>0</v>
+        <v>242.60010971787</v>
       </c>
       <c r="V12" s="50">
-        <v>0</v>
+        <v>18.569404058913</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -1937,37 +2011,39 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AD12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE12" s="50">
-        <v>3371.2587592404</v>
+        <v>30</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="AF12" s="50">
-        <v>0.23845810994122</v>
+        <v>66.292166666667</v>
       </c>
       <c r="AG12" s="50">
-        <v>1839.1660423529</v>
+        <v>5.220154445869</v>
       </c>
       <c r="AH12" s="50">
-        <v>0.060235294117647</v>
+        <v>171.29557271878</v>
       </c>
       <c r="AI12" s="50">
-        <v>5365.7707086526</v>
+        <v>2.2704672468454</v>
       </c>
       <c r="AJ12" s="50">
-        <v>0.12011816023437</v>
-      </c>
-      <c r="AK12" s="10"/>
+        <v>118.79386969272</v>
+      </c>
+      <c r="AK12" s="50">
+        <v>3.7453108463572</v>
+      </c>
       <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AR12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS12" s="49">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AT12" s="50">
         <v>0</v>
@@ -1976,43 +2052,45 @@
         <v>0</v>
       </c>
       <c r="AV12" s="50">
-        <v>0</v>
+        <v>44132.331273693</v>
       </c>
       <c r="AW12" s="50">
-        <v>0</v>
+        <v>1.4453963879016</v>
       </c>
       <c r="AX12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="10"/>
+        <v>42872.467816249</v>
+      </c>
+      <c r="AY12" s="50">
+        <v>0.95974320156669</v>
+      </c>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
       <c r="BB12" s="10"/>
       <c r="BC12" s="10"/>
       <c r="BD12" s="10"/>
       <c r="BF12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BG12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH12" s="52">
-        <v>33.27</v>
-      </c>
-      <c r="BI12" s="52">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="52">
-        <v>64</v>
-      </c>
-      <c r="BK12" s="52">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="52">
-        <v>48.635</v>
-      </c>
-      <c r="BM12" s="52">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="BH12" s="51">
+        <v>61.688</v>
+      </c>
+      <c r="BI12" s="51">
+        <v>52.425519205089</v>
+      </c>
+      <c r="BJ12" s="51">
+        <v>100.37233116883</v>
+      </c>
+      <c r="BK12" s="51">
+        <v>4.7141060127081</v>
+      </c>
+      <c r="BL12" s="51">
+        <v>81.030165584416</v>
+      </c>
+      <c r="BM12" s="51">
+        <v>28.569812608899</v>
       </c>
       <c r="BN12" s="7"/>
       <c r="BO12" s="7"/>
@@ -2020,8 +2098,26 @@
       <c r="BQ12" s="7"/>
       <c r="BR12" s="7"/>
       <c r="BS12" s="7"/>
+      <c r="BV12" s="55">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="55">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="55">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="55">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="55">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:71">
+    <row r="13" spans="1:79">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2038,14 +2134,26 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="P13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>0</v>
+      </c>
+      <c r="R13" s="51">
+        <v>0</v>
+      </c>
+      <c r="S13" s="51">
+        <v>0</v>
+      </c>
+      <c r="T13" s="51">
+        <v>0</v>
+      </c>
+      <c r="U13" s="51">
+        <v>0</v>
+      </c>
+      <c r="V13" s="51">
+        <v>0</v>
+      </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -2053,27 +2161,29 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AD13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE13" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="51">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="51">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="51">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="51">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" s="54">
+        <v>881.05704545455</v>
+      </c>
+      <c r="AG13" s="54">
+        <v>533.26532979923</v>
+      </c>
+      <c r="AH13" s="54">
+        <v>611.56266293706</v>
+      </c>
+      <c r="AI13" s="54">
+        <v>8.5869738961796</v>
+      </c>
+      <c r="AJ13" s="54">
+        <v>746.3098541958</v>
+      </c>
+      <c r="AK13" s="54">
+        <v>270.92615184771</v>
+      </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -2081,12 +2191,24 @@
       <c r="AP13" s="4"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
+      <c r="AT13" s="52">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="AU13" s="52">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="AV13" s="52">
+        <v>68035.749517197</v>
+      </c>
+      <c r="AW13" s="52">
+        <v>2.2282672082396</v>
+      </c>
+      <c r="AX13" s="52">
+        <v>69676.036081186</v>
+      </c>
+      <c r="AY13" s="52">
+        <v>1.5597679664171</v>
+      </c>
       <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
       <c r="BB13" s="8"/>
@@ -2094,27 +2216,69 @@
       <c r="BD13" s="8"/>
       <c r="BF13" s="8"/>
       <c r="BG13" s="8"/>
-      <c r="BH13" s="8"/>
-      <c r="BI13" s="8"/>
-      <c r="BJ13" s="8"/>
-      <c r="BK13" s="8"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
+      <c r="BH13" s="52">
+        <v>40.33</v>
+      </c>
+      <c r="BI13" s="52">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="52">
+        <v>26.118666666667</v>
+      </c>
+      <c r="BK13" s="52">
+        <v>8.1567355263095</v>
+      </c>
+      <c r="BL13" s="52">
+        <v>33.224333333333</v>
+      </c>
+      <c r="BM13" s="52">
+        <v>4.0783677631547</v>
+      </c>
       <c r="BN13" s="8"/>
       <c r="BO13" s="8"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="8"/>
       <c r="BR13" s="8"/>
       <c r="BS13" s="8"/>
+      <c r="BV13" s="55">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="55">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="55">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="55">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="55">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:71">
+    <row r="14" spans="1:79">
       <c r="P14" s="5"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="Q14" s="52">
+        <v>191.3387</v>
+      </c>
+      <c r="R14" s="52">
+        <v>14.636384712759</v>
+      </c>
+      <c r="S14" s="52">
+        <v>229.70763636364</v>
+      </c>
+      <c r="T14" s="52">
+        <v>0.85805267591037</v>
+      </c>
+      <c r="U14" s="52">
+        <v>210.52316818182</v>
+      </c>
+      <c r="V14" s="52">
+        <v>7.7472186943345</v>
+      </c>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
@@ -2122,26 +2286,16 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AD14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE14" s="52">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="52">
-        <v>1839.1660423529</v>
-      </c>
-      <c r="AH14" s="52">
-        <v>0.060235294117647</v>
-      </c>
-      <c r="AI14" s="52">
-        <v>1786.6626276894</v>
-      </c>
-      <c r="AJ14" s="52">
-        <v>0.039996235294118</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
@@ -2150,12 +2304,24 @@
       <c r="AP14" s="7"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
+      <c r="AT14" s="52">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="AU14" s="52">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="AV14" s="52">
+        <v>42300.818974118</v>
+      </c>
+      <c r="AW14" s="52">
+        <v>1.3854117647059</v>
+      </c>
+      <c r="AX14" s="52">
+        <v>42884.505707455</v>
+      </c>
+      <c r="AY14" s="52">
+        <v>0.9600126818377</v>
+      </c>
       <c r="AZ14" s="8"/>
       <c r="BA14" s="8"/>
       <c r="BB14" s="8"/>
@@ -2163,12 +2329,24 @@
       <c r="BD14" s="8"/>
       <c r="BF14" s="8"/>
       <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
+      <c r="BH14" s="52">
+        <v>328.635</v>
+      </c>
+      <c r="BI14" s="52">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="52">
+        <v>50.414133333333</v>
+      </c>
+      <c r="BK14" s="52">
+        <v>6.6483217748722</v>
+      </c>
+      <c r="BL14" s="52">
+        <v>189.52456666667</v>
+      </c>
+      <c r="BM14" s="52">
+        <v>3.3241608874361</v>
+      </c>
       <c r="BN14" s="8"/>
       <c r="BO14" s="8"/>
       <c r="BP14" s="8"/>
@@ -2176,9 +2354,9 @@
       <c r="BR14" s="8"/>
       <c r="BS14" s="8"/>
     </row>
-    <row r="15" spans="1:71">
+    <row r="15" spans="1:79">
       <c r="P15" s="29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -2193,7 +2371,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AD15" s="45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE15" s="46"/>
       <c r="AF15" s="46"/>
@@ -2221,29 +2399,37 @@
       <c r="BQ15" s="8"/>
       <c r="BR15" s="8"/>
       <c r="BS15" s="8"/>
+      <c r="BV15" s="55">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="55">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="55">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="55">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="55">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:71">
+    <row r="16" spans="1:79">
       <c r="AD16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE16" s="52">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="52">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="52">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="52">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
@@ -2265,28 +2451,18 @@
       <c r="BR16" s="8"/>
       <c r="BS16" s="8"/>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:79">
       <c r="AD17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE17" s="52">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="52">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="52">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="52">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AE17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
@@ -2294,28 +2470,18 @@
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:79">
       <c r="AD18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE18" s="52">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="52">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="52">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="52">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
@@ -2323,9 +2489,9 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:79">
       <c r="AD19" s="45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AE19" s="46"/>
       <c r="AF19" s="46"/>
@@ -2340,28 +2506,18 @@
       <c r="AO19" s="46"/>
       <c r="AP19" s="47"/>
     </row>
-    <row r="20" spans="1:71">
+    <row r="20" spans="1:79">
       <c r="AD20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE20" s="52">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="52">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="52">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="52">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AE20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
@@ -2369,28 +2525,18 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
     </row>
-    <row r="21" spans="1:71">
+    <row r="21" spans="1:79">
       <c r="AD21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE21" s="52">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="52">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="52">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="52">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
@@ -2398,28 +2544,18 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
     </row>
-    <row r="22" spans="1:71">
+    <row r="22" spans="1:79">
       <c r="AD22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE22" s="52">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="52">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="52">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="52">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AE22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
